--- a/06类和对象/对象内存关系.xlsx
+++ b/06类和对象/对象内存关系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="13995" windowHeight="4455"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="12240" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>内存</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>heigth</t>
-  </si>
-  <si>
-    <t>new Person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Person p;p变量</t>
@@ -115,6 +111,18 @@
   </si>
   <si>
     <t>extends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B41"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,12 +667,12 @@
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -666,14 +680,21 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C4" s="1"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="12">
+        <v>100</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C5" s="1"/>
       <c r="E5" s="5" t="s">
         <v>3</v>
@@ -682,9 +703,10 @@
         <v>40</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="14"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C6" s="1"/>
       <c r="E6" s="5" t="s">
         <v>4</v>
@@ -695,69 +717,69 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C7" s="1"/>
       <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="C9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -778,7 +800,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
         <v>10</v>
@@ -787,12 +809,12 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -801,12 +823,12 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -823,13 +845,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
@@ -854,7 +876,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
@@ -868,7 +890,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
@@ -884,7 +906,8 @@
       <c r="B46" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="D33:D37"/>
